--- a/10 - OPS/Quecksilber-Kalibrierungskurve.xlsx
+++ b/10 - OPS/Quecksilber-Kalibrierungskurve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoe\Files\Studium\Grundpraktikum\Grundpraktikum-2\10 - OPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A196A3C-0439-4968-B0B6-A674922D55EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F277D7C-5BA1-4FA0-8DBF-E88E02EB32A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{471C8960-5341-432D-9687-59B6A2501691}"/>
+    <workbookView minimized="1" xWindow="2652" yWindow="2652" windowWidth="23040" windowHeight="12120" xr2:uid="{471C8960-5341-432D-9687-59B6A2501691}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
